--- a/2021 - 2022/__TEMPLATE BUKTI FISIK/template (1).xlsx
+++ b/2021 - 2022/__TEMPLATE BUKTI FISIK/template (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\}}DUPAK\2021 - 2022 DEBI TOMIKA\__TEMPLATE BUKTI FISIK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\}}DUPAK\2021 - 2022\__TEMPLATE BUKTI FISIK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E90212A-C658-4828-89B7-9F9B4394F5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E82C262-FF8A-4554-9AA9-A2A3462F0981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F78D713A-BD00-435B-9760-1F9177835264}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="343">
   <si>
     <t>No.</t>
   </si>
@@ -782,9 +782,6 @@
     <t>I.C.39</t>
   </si>
   <si>
-    <t>Laporan Kegiatan Implementasi Data Mining 2021 dengan Regresi Logistik dan Random Forest</t>
-  </si>
-  <si>
     <t>Dokumen Usulan Pembangunan SICAKEP</t>
   </si>
   <si>
@@ -1203,19 +1200,6 @@
     <t>Laporan pengelolaan pengguna dan hak akses Aplikasi SIKUANSING
 Dokumentasi Pengelolaan dan Hak Akses SIKUANSING
 Dokumentasi pembagian peran pengguna</t>
-  </si>
-  <si>
-    <t>Materi Satu Data Indonesia
-Mekanisme Rekomendasi Kegiatan Statistik
-Materi Validasi Data KDA_2021
-Materi Sosialisasi Desa Cantik
-Materi Tata Laksana Penyelenggaran Statistik</t>
-  </si>
-  <si>
-    <t>Materi Penguatan Statistik Sektoral
-Materi Rekomendasi Statistik
-Materi Metadata Statistik
-Materi Tata Laksana Penyelenggaran Statistik</t>
   </si>
   <si>
     <t>Laporan dan Undangan Pembinaan Statistik Sektoral</t>
@@ -1458,6 +1442,26 @@
       </rPr>
       <t xml:space="preserve"> Data 2021</t>
     </r>
+  </si>
+  <si>
+    <t>Materi Satu Data Indonesia
+Mekanisme Rekomendasi Kegiatan Statistik
+Materi Validasi Data KDA_2021
+Materi Sosialisasi Desa Cantik
+Materi Tata Laksana Penyelenggaraan Statistik</t>
+  </si>
+  <si>
+    <t>Materi Penguatan Statistik Sektoral
+Materi Rekomendasi Statistik
+Materi Metadata Statistik
+Materi Tata Laksana Penyelenggaraan Statistik</t>
+  </si>
+  <si>
+    <t>28 Desember 2020 - 31 Desember 2021</t>
+  </si>
+  <si>
+    <t>Laporan Kegiatan Implementasi Data Mining 2021 dengan Regresi Logistik
+Laporan Kegiatan Implementasi Data Mining 2021 dengan Random Forest</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1627,6 +1631,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1946,7 +1953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2F82E5-76AC-4E1A-9859-22842F30AFBE}">
   <dimension ref="A1:W99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -2002,10 +2009,12 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="23" t="s">
+        <v>341</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4">
         <v>25</v>
@@ -2017,7 +2026,7 @@
         <v>175</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -2025,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -2034,7 +2043,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>11</v>
@@ -2050,7 +2059,7 @@
         <v>0.66</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -2067,7 +2076,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>11</v>
@@ -2100,7 +2109,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>16</v>
@@ -2116,7 +2125,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2133,7 +2142,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
@@ -2199,7 +2208,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>8</v>
@@ -2248,7 +2257,7 @@
         <v>0.12</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -2292,7 +2301,7 @@
         <v>157</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -2314,7 +2323,7 @@
         <v>0.12</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -2358,13 +2367,13 @@
         <v>157</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>182</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>33</v>
@@ -2380,7 +2389,7 @@
         <v>0.3</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -2397,7 +2406,7 @@
         <v>35</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>36</v>
@@ -2413,7 +2422,7 @@
         <v>1.2</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>183</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2430,7 +2439,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>11</v>
@@ -2446,7 +2455,7 @@
         <v>0.01</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2463,7 +2472,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>16</v>
@@ -2479,7 +2488,7 @@
         <v>0.44</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -2496,7 +2505,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>11</v>
@@ -2512,7 +2521,7 @@
         <v>0.11</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -2529,10 +2538,10 @@
         <v>40</v>
       </c>
       <c r="E18" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="G18" s="15">
         <v>0.88</v>
@@ -2545,7 +2554,7 @@
         <v>0.88</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -2562,10 +2571,10 @@
         <v>40</v>
       </c>
       <c r="E19" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="G19" s="15">
         <v>0.88</v>
@@ -2578,7 +2587,7 @@
         <v>0.88</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -2595,10 +2604,10 @@
         <v>44</v>
       </c>
       <c r="E20" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="G20" s="15">
         <v>0.22</v>
@@ -2611,7 +2620,7 @@
         <v>0.22</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -2628,10 +2637,10 @@
         <v>44</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G21" s="15">
         <v>0.22</v>
@@ -2644,7 +2653,7 @@
         <v>0.22</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -2661,10 +2670,10 @@
         <v>47</v>
       </c>
       <c r="E22" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="G22" s="15">
         <v>0.44</v>
@@ -2677,7 +2686,7 @@
         <v>0.44</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -2694,10 +2703,10 @@
         <v>47</v>
       </c>
       <c r="E23" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="G23" s="15">
         <v>0.44</v>
@@ -2710,7 +2719,7 @@
         <v>0.44</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -2727,10 +2736,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="G24" s="15">
         <v>0.55000000000000004</v>
@@ -2743,7 +2752,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -2760,10 +2769,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="G25" s="15">
         <v>0.55000000000000004</v>
@@ -2776,7 +2785,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -2793,10 +2802,10 @@
         <v>54</v>
       </c>
       <c r="E26" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="G26" s="15">
         <v>0.54</v>
@@ -2809,7 +2818,7 @@
         <v>0.54</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -2826,10 +2835,10 @@
         <v>54</v>
       </c>
       <c r="E27" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="G27" s="15">
         <v>0.54</v>
@@ -2842,7 +2851,7 @@
         <v>0.54</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -2859,10 +2868,10 @@
         <v>58</v>
       </c>
       <c r="E28" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="G28" s="15">
         <v>0.66</v>
@@ -2875,7 +2884,7 @@
         <v>0.66</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -2892,10 +2901,10 @@
         <v>58</v>
       </c>
       <c r="E29" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="G29" s="15">
         <v>0.66</v>
@@ -2908,7 +2917,7 @@
         <v>0.66</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -2925,10 +2934,10 @@
         <v>62</v>
       </c>
       <c r="E30" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="G30" s="15">
         <v>0.44</v>
@@ -2941,7 +2950,7 @@
         <v>0.44</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -2958,10 +2967,10 @@
         <v>62</v>
       </c>
       <c r="E31" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="G31" s="15">
         <v>0.44</v>
@@ -2974,7 +2983,7 @@
         <v>0.44</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -2991,10 +3000,10 @@
         <v>65</v>
       </c>
       <c r="E32" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="G32" s="15">
         <v>1.21</v>
@@ -3007,7 +3016,7 @@
         <v>1.21</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -3024,10 +3033,10 @@
         <v>65</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G33" s="15">
         <v>1.21</v>
@@ -3040,7 +3049,7 @@
         <v>1.21</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -3048,7 +3057,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>68</v>
@@ -3057,10 +3066,10 @@
         <v>69</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G34" s="15">
         <v>0.44</v>
@@ -3073,7 +3082,7 @@
         <v>0.44</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -3081,7 +3090,7 @@
         <v>18</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>70</v>
@@ -3090,10 +3099,10 @@
         <v>69</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G35" s="15">
         <v>0.44</v>
@@ -3106,7 +3115,7 @@
         <v>0.44</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -3123,7 +3132,7 @@
         <v>72</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>73</v>
@@ -3139,7 +3148,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -3156,7 +3165,7 @@
         <v>72</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>73</v>
@@ -3172,7 +3181,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -3192,7 +3201,7 @@
         <v>77</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G38" s="15">
         <v>0.11</v>
@@ -3205,7 +3214,7 @@
         <v>0.11</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -3225,7 +3234,7 @@
         <v>79</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G39" s="15">
         <v>0.11</v>
@@ -3238,7 +3247,7 @@
         <v>0.11</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -3258,7 +3267,7 @@
         <v>81</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G40" s="15">
         <v>0.11</v>
@@ -3271,7 +3280,7 @@
         <v>0.11</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -3291,7 +3300,7 @@
         <v>83</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G41" s="15">
         <v>0.11</v>
@@ -3304,7 +3313,7 @@
         <v>0.11</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -3324,7 +3333,7 @@
         <v>85</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G42" s="15">
         <v>0.11</v>
@@ -3337,7 +3346,7 @@
         <v>0.11</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -3357,7 +3366,7 @@
         <v>29</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G43" s="15">
         <v>0.11</v>
@@ -3370,7 +3379,7 @@
         <v>0.11</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -3390,7 +3399,7 @@
         <v>29</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G44" s="15">
         <v>0.11</v>
@@ -3403,7 +3412,7 @@
         <v>0.11</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -3423,7 +3432,7 @@
         <v>89</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G45" s="15">
         <v>0.11</v>
@@ -3436,7 +3445,7 @@
         <v>0.11</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -3456,7 +3465,7 @@
         <v>91</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G46" s="15">
         <v>0.11</v>
@@ -3469,7 +3478,7 @@
         <v>0.11</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -3489,7 +3498,7 @@
         <v>93</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G47" s="15">
         <v>0.11</v>
@@ -3502,7 +3511,7 @@
         <v>0.11</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -3522,7 +3531,7 @@
         <v>95</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G48" s="15">
         <v>0.11</v>
@@ -3535,7 +3544,7 @@
         <v>0.11</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -3555,7 +3564,7 @@
         <v>97</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G49" s="15">
         <v>0.11</v>
@@ -3568,7 +3577,7 @@
         <v>0.11</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -3588,7 +3597,7 @@
         <v>30</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G50" s="15">
         <v>0.11</v>
@@ -3601,7 +3610,7 @@
         <v>0.11</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -3621,7 +3630,7 @@
         <v>100</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G51" s="15">
         <v>0.11</v>
@@ -3634,7 +3643,7 @@
         <v>0.11</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -3654,7 +3663,7 @@
         <v>102</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G52" s="15">
         <v>0.11</v>
@@ -3667,7 +3676,7 @@
         <v>0.11</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
@@ -3687,7 +3696,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G53" s="15">
         <v>0.11</v>
@@ -3700,7 +3709,7 @@
         <v>0.11</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -3720,7 +3729,7 @@
         <v>32</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G54" s="15">
         <v>0.11</v>
@@ -3733,7 +3742,7 @@
         <v>0.11</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -3753,7 +3762,7 @@
         <v>106</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G55" s="15">
         <v>0.11</v>
@@ -3766,7 +3775,7 @@
         <v>0.11</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
@@ -3786,7 +3795,7 @@
         <v>108</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G56" s="15">
         <v>0.11</v>
@@ -3799,7 +3808,7 @@
         <v>0.11</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -3819,7 +3828,7 @@
         <v>108</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G57" s="15">
         <v>0.11</v>
@@ -3832,7 +3841,7 @@
         <v>0.11</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -3852,7 +3861,7 @@
         <v>111</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G58" s="15">
         <v>0.11</v>
@@ -3865,7 +3874,7 @@
         <v>0.11</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -3882,7 +3891,7 @@
         <v>40</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>41</v>
@@ -3898,7 +3907,7 @@
         <v>0.88</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -3915,10 +3924,10 @@
         <v>44</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G60" s="15">
         <v>0.22</v>
@@ -3931,7 +3940,7 @@
         <v>0.22</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -3948,10 +3957,10 @@
         <v>47</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G61" s="15">
         <v>0.44</v>
@@ -3964,7 +3973,7 @@
         <v>0.44</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -3981,7 +3990,7 @@
         <v>50</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>51</v>
@@ -3997,7 +4006,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -4014,7 +4023,7 @@
         <v>54</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>55</v>
@@ -4030,7 +4039,7 @@
         <v>0.54</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -4047,7 +4056,7 @@
         <v>58</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>59</v>
@@ -4063,7 +4072,7 @@
         <v>0.66</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="42.75" x14ac:dyDescent="0.25">
@@ -4080,10 +4089,10 @@
         <v>62</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G65" s="15">
         <v>0.44</v>
@@ -4096,7 +4105,7 @@
         <v>0.44</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="42.75" x14ac:dyDescent="0.25">
@@ -4113,7 +4122,7 @@
         <v>65</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>66</v>
@@ -4129,7 +4138,7 @@
         <v>1.21</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="42.75" x14ac:dyDescent="0.25">
@@ -4146,7 +4155,7 @@
         <v>72</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>73</v>
@@ -4162,7 +4171,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
@@ -4173,16 +4182,16 @@
         <v>169</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G68" s="15">
         <v>0.11</v>
@@ -4195,7 +4204,7 @@
         <v>0.11</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
@@ -4206,16 +4215,16 @@
         <v>169</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G69" s="15">
         <v>0.11</v>
@@ -4228,7 +4237,7 @@
         <v>0.11</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
@@ -4239,16 +4248,16 @@
         <v>169</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G70" s="15">
         <v>0.11</v>
@@ -4261,7 +4270,7 @@
         <v>0.11</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
@@ -4272,16 +4281,16 @@
         <v>169</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G71" s="15">
         <v>0.11</v>
@@ -4294,7 +4303,7 @@
         <v>0.11</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
@@ -4305,16 +4314,16 @@
         <v>169</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G72" s="15">
         <v>0.11</v>
@@ -4327,7 +4336,7 @@
         <v>0.11</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
@@ -4338,16 +4347,16 @@
         <v>169</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G73" s="15">
         <v>0.11</v>
@@ -4360,7 +4369,7 @@
         <v>0.11</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="57" x14ac:dyDescent="0.25">
@@ -4371,16 +4380,16 @@
         <v>169</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G74" s="15">
         <v>0.11</v>
@@ -4393,7 +4402,7 @@
         <v>0.11</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
@@ -4404,16 +4413,16 @@
         <v>169</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G75" s="15">
         <v>0.11</v>
@@ -4426,7 +4435,7 @@
         <v>0.11</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
@@ -4437,16 +4446,16 @@
         <v>169</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G76" s="15">
         <v>0.11</v>
@@ -4459,7 +4468,7 @@
         <v>0.11</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="85.5" x14ac:dyDescent="0.25">
@@ -4470,16 +4479,16 @@
         <v>169</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G77" s="15">
         <v>0.11</v>
@@ -4492,7 +4501,7 @@
         <v>0.11</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
@@ -4503,16 +4512,16 @@
         <v>169</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G78" s="15">
         <v>0.11</v>
@@ -4525,7 +4534,7 @@
         <v>0.11</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
@@ -4536,16 +4545,16 @@
         <v>169</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G79" s="15">
         <v>0.11</v>
@@ -4558,7 +4567,7 @@
         <v>0.11</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4575,7 +4584,7 @@
         <v>122</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F80" s="21" t="s">
         <v>11</v>
@@ -4591,7 +4600,7 @@
         <v>2.97</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
@@ -4621,7 +4630,7 @@
         <v>124</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F81" s="21" t="s">
         <v>11</v>
@@ -4637,7 +4646,7 @@
         <v>4.16</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
@@ -4667,7 +4676,7 @@
         <v>122</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F82" s="21" t="s">
         <v>11</v>
@@ -4683,7 +4692,7 @@
         <v>2.97</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
@@ -4713,7 +4722,7 @@
         <v>124</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F83" s="21" t="s">
         <v>11</v>
@@ -4729,7 +4738,7 @@
         <v>4.16</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
@@ -4750,19 +4759,19 @@
         <v>1</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="F84" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="G84" s="15">
         <v>0.16500000000000001</v>
@@ -4775,7 +4784,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
@@ -4796,19 +4805,19 @@
         <v>2</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E85" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>301</v>
-      </c>
       <c r="F85" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G85" s="15">
         <v>0.16500000000000001</v>
@@ -4821,7 +4830,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
@@ -4944,7 +4953,7 @@
         <v>172</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>134</v>
@@ -5208,13 +5217,13 @@
         <v>173</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>128</v>
